--- a/Doc/防御武器工厂建筑.xlsx
+++ b/Doc/防御武器工厂建筑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/DysonSphereProgramBlueprints/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\DysonSphereProgramBlueprints\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1852CD8-3A69-8247-AD50-F42FA504FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468BD4B-E68A-4218-B22A-26FEDBAE01FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
   <si>
     <t>建筑</t>
   </si>
@@ -147,9 +147,6 @@
     <t>1制作台1</t>
   </si>
   <si>
-    <t>1能量枢纽</t>
-  </si>
-  <si>
     <t>秒速基准</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>15制作台1</t>
+  </si>
+  <si>
+    <t>配送运输机</t>
+  </si>
+  <si>
+    <t>物流配送器</t>
   </si>
 </sst>
 </file>
@@ -282,29 +285,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -385,7 +374,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -406,7 +409,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -414,13 +424,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,307 +737,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A5000-EF42-4C55-A14B-5E508B0F3EEB}">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:N1"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="13" width="4.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
-    <col min="39" max="39" width="4.6640625" customWidth="1"/>
-    <col min="41" max="41" width="4.6640625" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" customWidth="1"/>
-    <col min="45" max="45" width="4.6640625" customWidth="1"/>
-    <col min="47" max="47" width="4.6640625" customWidth="1"/>
-    <col min="49" max="49" width="4.6640625" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" customWidth="1"/>
-    <col min="53" max="53" width="4.6640625" customWidth="1"/>
-    <col min="55" max="55" width="4.6640625" customWidth="1"/>
-    <col min="57" max="57" width="4.6640625" customWidth="1"/>
-    <col min="59" max="59" width="4.6640625" customWidth="1"/>
-    <col min="61" max="61" width="4.6640625" customWidth="1"/>
-    <col min="63" max="63" width="4.6640625" customWidth="1"/>
-    <col min="65" max="65" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="13" width="4.6328125" customWidth="1"/>
+    <col min="15" max="15" width="4.6328125" customWidth="1"/>
+    <col min="17" max="17" width="4.6328125" customWidth="1"/>
+    <col min="19" max="19" width="4.6328125" customWidth="1"/>
+    <col min="21" max="21" width="4.6328125" customWidth="1"/>
+    <col min="23" max="23" width="4.6328125" customWidth="1"/>
+    <col min="25" max="25" width="4.6328125" customWidth="1"/>
+    <col min="27" max="27" width="4.6328125" customWidth="1"/>
+    <col min="29" max="29" width="4.6328125" customWidth="1"/>
+    <col min="31" max="31" width="4.6328125" customWidth="1"/>
+    <col min="33" max="33" width="4.6328125" customWidth="1"/>
+    <col min="35" max="35" width="4.6328125" customWidth="1"/>
+    <col min="37" max="37" width="4.6328125" customWidth="1"/>
+    <col min="39" max="39" width="4.6328125" customWidth="1"/>
+    <col min="41" max="41" width="4.6328125" customWidth="1"/>
+    <col min="43" max="43" width="4.6328125" customWidth="1"/>
+    <col min="45" max="45" width="4.6328125" customWidth="1"/>
+    <col min="47" max="47" width="4.6328125" customWidth="1"/>
+    <col min="49" max="49" width="4.6328125" customWidth="1"/>
+    <col min="51" max="51" width="4.6328125" customWidth="1"/>
+    <col min="53" max="53" width="4.6328125" customWidth="1"/>
+    <col min="55" max="55" width="4.6328125" customWidth="1"/>
+    <col min="57" max="57" width="4.6328125" customWidth="1"/>
+    <col min="59" max="59" width="4.6328125" customWidth="1"/>
+    <col min="61" max="61" width="4.6328125" customWidth="1"/>
+    <col min="63" max="63" width="4.6328125" customWidth="1"/>
+    <col min="65" max="65" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1" t="str">
-        <f>A19</f>
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2" t="str">
+        <f>A21</f>
         <v>已选</v>
       </c>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="str">
-        <f>A22</f>
-        <v>已选</v>
-      </c>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN1" s="1"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN1" s="2"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN2" s="1"/>
+      <c r="BN2" s="2"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -1047,8 +1050,8 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -1218,12 +1221,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1232,7 +1235,7 @@
         <v>14.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>1.25</v>
@@ -1244,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="0">J4/60/H4</f>
+        <f t="shared" ref="I4:I18" si="0">J4/60/H4</f>
         <v>4.6875E-2</v>
       </c>
       <c r="J4">
@@ -1255,129 +1258,129 @@
         <v>8</v>
       </c>
       <c r="N4">
-        <f>J4*M4</f>
+        <f t="shared" ref="N4:N18" si="1">J4*M4</f>
         <v>90</v>
       </c>
       <c r="P4">
-        <f>J4*O4</f>
+        <f t="shared" ref="P4:P18" si="2">J4*O4</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>J4*Q4</f>
+        <f t="shared" ref="R4:R18" si="3">J4*Q4</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>J4*S4</f>
+        <f t="shared" ref="T4:T18" si="4">J4*S4</f>
         <v>0</v>
       </c>
       <c r="U4">
         <v>8</v>
       </c>
       <c r="V4">
-        <f>J4*U4</f>
+        <f t="shared" ref="V4:V18" si="5">J4*U4</f>
         <v>90</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="X4">
-        <f>J4*W4</f>
+        <f t="shared" ref="X4:X18" si="6">J4*W4</f>
         <v>45</v>
       </c>
       <c r="Z4">
-        <f>H4*Y4</f>
+        <f t="shared" ref="Z4:Z18" si="7">H4*Y4</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>J4*AA4</f>
+        <f t="shared" ref="AB4:AB18" si="8">J4*AA4</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>J4*AC4</f>
+        <f t="shared" ref="AD4:AD18" si="9">J4*AC4</f>
         <v>0</v>
       </c>
       <c r="AE4">
         <v>2</v>
       </c>
       <c r="AF4">
-        <f>J4*AE4</f>
+        <f t="shared" ref="AF4:AF18" si="10">J4*AE4</f>
         <v>22.5</v>
       </c>
       <c r="AH4">
-        <f>J4*AG4</f>
+        <f t="shared" ref="AH4:AH18" si="11">J4*AG4</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>J4*AI4</f>
+        <f t="shared" ref="AJ4:AJ18" si="12">J4*AI4</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>J4*AK4</f>
+        <f t="shared" ref="AL4:AL18" si="13">J4*AK4</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>J4*AM4</f>
+        <f t="shared" ref="AN4:AN18" si="14">J4*AM4</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>J4*AO4</f>
+        <f t="shared" ref="AP4:AP18" si="15">J4*AO4</f>
         <v>0</v>
       </c>
       <c r="AR4">
-        <f>J4*AQ4</f>
+        <f t="shared" ref="AR4:AR18" si="16">J4*AQ4</f>
         <v>0</v>
       </c>
       <c r="AT4">
-        <f>J4*AS4</f>
+        <f t="shared" ref="AT4:AT18" si="17">J4*AS4</f>
         <v>0</v>
       </c>
       <c r="AV4">
-        <f>J4*AU4</f>
+        <f t="shared" ref="AV4:AV18" si="18">J4*AU4</f>
         <v>0</v>
       </c>
       <c r="AX4">
-        <f>J4*AW4</f>
+        <f t="shared" ref="AX4:AX18" si="19">J4*AW4</f>
         <v>0</v>
       </c>
       <c r="AZ4">
-        <f>J4*AY4</f>
+        <f t="shared" ref="AZ4:AZ18" si="20">J4*AY4</f>
         <v>0</v>
       </c>
       <c r="BB4">
-        <f>J4*BA4</f>
+        <f t="shared" ref="BB4:BB18" si="21">J4*BA4</f>
         <v>0</v>
       </c>
       <c r="BD4">
-        <f>J4*BC4</f>
+        <f t="shared" ref="BD4:BD18" si="22">J4*BC4</f>
         <v>0</v>
       </c>
       <c r="BF4">
-        <f>J4*BE4</f>
+        <f t="shared" ref="BF4:BF18" si="23">J4*BE4</f>
         <v>0</v>
       </c>
       <c r="BH4">
-        <f>J4*BG4</f>
+        <f t="shared" ref="BH4:BH18" si="24">J4*BG4</f>
         <v>0</v>
       </c>
       <c r="BJ4">
-        <f>J4*BI4</f>
+        <f t="shared" ref="BJ4:BJ18" si="25">J4*BI4</f>
         <v>0</v>
       </c>
       <c r="BL4">
-        <f>J4*BK4</f>
+        <f t="shared" ref="BL4:BL18" si="26">J4*BK4</f>
         <v>0</v>
       </c>
       <c r="BN4">
-        <f>J4*BM4</f>
+        <f t="shared" ref="BN4:BN18" si="27">J4*BM4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1386,7 +1389,7 @@
         <v>9.375</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>1.25</v>
@@ -1402,136 +1405,136 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J22" si="1">IF(B5="是",D5/F5/G5,0)</f>
+        <f t="shared" ref="J5:J23" si="28">IF(B5="是",D5/F5/G5,0)</f>
         <v>7.5</v>
       </c>
       <c r="N5">
-        <f>J5*M5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>J5*O5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>J5*Q5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>J5*S5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>J5*U5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>J5*W5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>H5*Y5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA5">
         <v>8</v>
       </c>
       <c r="AB5">
-        <f>J5*AA5</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="AD5">
-        <f>J5*AC5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE5">
         <v>12</v>
       </c>
       <c r="AF5">
-        <f>J5*AE5</f>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AH5">
-        <f>J5*AG5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI5">
         <v>6</v>
       </c>
       <c r="AJ5">
-        <f>J5*AI5</f>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="AL5">
-        <f>J5*AK5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>J5*AM5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>J5*AO5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR5">
-        <f>J5*AQ5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT5">
-        <f>J5*AS5</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV5">
-        <f>J5*AU5</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX5">
-        <f>J5*AW5</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ5">
-        <f>J5*AY5</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB5">
-        <f>J5*BA5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f>J5*BC5</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF5">
-        <f>J5*BE5</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH5">
-        <f>J5*BG5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ5">
-        <f>J5*BI5</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL5">
-        <f>J5*BK5</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BM5">
         <v>6</v>
       </c>
       <c r="BN5">
-        <f>J5*BM5</f>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1540,7 +1543,7 @@
         <v>11.25</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>1.25</v>
@@ -1556,136 +1559,136 @@
         <v>0.03</v>
       </c>
       <c r="J6">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <f>J6*M6</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>J6*O6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>J6*Q6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>J6*S6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>J6*U6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>J6*W6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>H6*Y6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA6">
         <v>10</v>
       </c>
       <c r="AB6">
-        <f>J6*AA6</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AD6">
-        <f>J6*AC6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE6">
         <v>10</v>
       </c>
       <c r="AF6">
-        <f>J6*AE6</f>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="AH6">
-        <f>J6*AG6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI6">
         <v>8</v>
       </c>
       <c r="AJ6">
-        <f>J6*AI6</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="AL6">
-        <f>J6*AK6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>J6*AM6</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>J6*AO6</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR6">
-        <f>J6*AQ6</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT6">
-        <f>J6*AS6</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU6">
         <v>2</v>
       </c>
       <c r="AV6">
-        <f>J6*AU6</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="AX6">
-        <f>J6*AW6</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ6">
-        <f>J6*AY6</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB6">
-        <f>J6*BA6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD6">
-        <f>J6*BC6</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF6">
-        <f>J6*BE6</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH6">
-        <f>J6*BG6</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ6">
-        <f>J6*BI6</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL6">
-        <f>J6*BK6</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN6">
-        <f>J6*BM6</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1694,7 +1697,7 @@
         <v>9.375</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>1.25</v>
@@ -1710,136 +1713,136 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J7">
+        <f t="shared" si="28"/>
+        <v>7.5</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="N7">
-        <f>J7*M7</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>J7*O7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>J7*Q7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>J7*S7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>J7*U7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>J7*W7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>H7*Y7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA7">
         <v>9</v>
       </c>
       <c r="AB7">
-        <f>J7*AA7</f>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="AD7">
-        <f>J7*AC7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE7">
         <v>6</v>
       </c>
       <c r="AF7">
-        <f>J7*AE7</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="AH7">
-        <f>J7*AG7</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>J7*AI7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL7">
-        <f>J7*AK7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM7">
         <v>6</v>
       </c>
       <c r="AN7">
-        <f>J7*AM7</f>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="AP7">
-        <f>J7*AO7</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR7">
-        <f>J7*AQ7</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT7">
-        <f>J7*AS7</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV7">
-        <f>J7*AU7</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX7">
-        <f>J7*AW7</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ7">
-        <f>J7*AY7</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BA7">
         <v>9</v>
       </c>
       <c r="BB7">
-        <f>J7*BA7</f>
+        <f t="shared" si="21"/>
         <v>67.5</v>
       </c>
       <c r="BD7">
-        <f>J7*BC7</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF7">
-        <f>J7*BE7</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH7">
-        <f>J7*BG7</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ7">
-        <f>J7*BI7</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL7">
-        <f>J7*BK7</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN7">
-        <f>J7*BM7</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1848,7 +1851,7 @@
         <v>5.625</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>1.25</v>
@@ -1864,139 +1867,139 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="J8">
+        <f t="shared" si="28"/>
+        <v>4.5</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="N8">
-        <f>J8*M8</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>J8*O8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>J8*Q8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>J8*S8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>J8*U8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>J8*W8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>H8*Y8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>J8*AA8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC8">
         <v>20</v>
       </c>
       <c r="AD8">
-        <f>J8*AC8</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="AF8">
-        <f>J8*AE8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG8">
         <v>5</v>
       </c>
       <c r="AH8">
-        <f>J8*AG8</f>
+        <f t="shared" si="11"/>
         <v>22.5</v>
       </c>
       <c r="AJ8">
-        <f>J8*AI8</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>J8*AK8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM8">
         <v>5</v>
       </c>
       <c r="AN8">
-        <f>J8*AM8</f>
+        <f t="shared" si="14"/>
         <v>22.5</v>
       </c>
       <c r="AP8">
-        <f>J8*AO8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR8">
-        <f>J8*AQ8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT8">
-        <f>J8*AS8</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU8">
         <v>10</v>
       </c>
       <c r="AV8">
-        <f>J8*AU8</f>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="AW8">
         <v>10</v>
       </c>
       <c r="AX8">
-        <f>J8*AW8</f>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
       <c r="AZ8">
-        <f>J8*AY8</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB8">
-        <f>J8*BA8</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD8">
-        <f>J8*BC8</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF8">
-        <f>J8*BE8</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH8">
-        <f>J8*BG8</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ8">
-        <f>J8*BI8</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL8">
-        <f>J8*BK8</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN8">
-        <f>J8*BM8</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -2005,7 +2008,7 @@
         <v>9.375</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>1.25</v>
@@ -2021,136 +2024,136 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J9">
+        <f t="shared" si="28"/>
+        <v>7.5</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="N9">
-        <f>J9*M9</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>J9*O9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>J9*Q9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>J9*S9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>J9*U9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>J9*W9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>H9*Y9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA9">
         <v>12</v>
       </c>
       <c r="AB9">
-        <f>J9*AA9</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AD9">
-        <f>J9*AC9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE9">
         <v>18</v>
       </c>
       <c r="AF9">
-        <f>J9*AE9</f>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="AH9">
-        <f>J9*AG9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>J9*AI9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>J9*AK9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>J9*AM9</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO9">
         <v>6</v>
       </c>
       <c r="AP9">
-        <f>J9*AO9</f>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="AR9">
-        <f>J9*AQ9</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT9">
-        <f>J9*AS9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV9">
-        <f>J9*AU9</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX9">
-        <f>J9*AW9</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ9">
-        <f>J9*AY9</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB9">
-        <f>J9*BA9</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD9">
-        <f>J9*BC9</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF9">
-        <f>J9*BE9</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH9">
-        <f>J9*BG9</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ9">
-        <f>J9*BI9</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL9">
-        <f>J9*BK9</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BM9">
         <v>12</v>
       </c>
       <c r="BN9">
-        <f>J9*BM9</f>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2159,7 +2162,7 @@
         <v>7.5</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2175,7 +2178,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="K10" t="s">
@@ -2185,126 +2188,126 @@
         <v>2</v>
       </c>
       <c r="N10">
-        <f>J10*M10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>J10*O10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>J10*Q10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>J10*S10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>J10*U10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>J10*W10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y10">
         <v>12</v>
       </c>
       <c r="Z10">
-        <f>H10*Y10</f>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="AB10">
-        <f>J10*AA10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f>J10*AC10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f>J10*AE10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>J10*AG10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>J10*AI10</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>J10*AK10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>J10*AM10</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP10">
-        <f>J10*AO10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR10">
-        <f>J10*AQ10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT10">
-        <f>J10*AS10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV10">
-        <f>J10*AU10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX10">
-        <f>J10*AW10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ10">
-        <f>J10*AY10</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB10">
-        <f>J10*BA10</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD10">
-        <f>J10*BC10</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF10">
-        <f>J10*BE10</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH10">
-        <f>J10*BG10</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ10">
-        <f>J10*BI10</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BK10">
         <v>6</v>
       </c>
       <c r="BL10">
-        <f>J10*BK10</f>
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="BN10">
-        <f>J10*BM10</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2313,7 +2316,7 @@
         <v>5.625</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>1.25</v>
@@ -2329,136 +2332,136 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="J11">
+        <f t="shared" si="28"/>
+        <v>4.5</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="N11">
-        <f>J11*M11</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>J11*O11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>J11*Q11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>J11*S11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>J11*U11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>J11*W11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>H11*Y11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA11">
         <v>20</v>
       </c>
       <c r="AB11">
-        <f>J11*AA11</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AD11">
-        <f>J11*AC11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f>J11*AE11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>J11*AG11</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>J11*AI11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK11">
         <v>20</v>
       </c>
       <c r="AL11">
-        <f>J11*AK11</f>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="AN11">
-        <f>J11*AM11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>J11*AO11</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR11">
-        <f>J11*AQ11</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT11">
-        <f>J11*AS11</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
       </c>
       <c r="AV11">
-        <f>J11*AU11</f>
+        <f t="shared" si="18"/>
         <v>22.5</v>
       </c>
       <c r="AX11">
-        <f>J11*AW11</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ11">
-        <f>J11*AY11</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB11">
-        <f>J11*BA11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD11">
-        <f>J11*BC11</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BE11">
         <v>5</v>
       </c>
       <c r="BF11">
-        <f>J11*BE11</f>
+        <f t="shared" si="23"/>
         <v>22.5</v>
       </c>
       <c r="BH11">
-        <f>J11*BG11</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ11">
-        <f>J11*BI11</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL11">
-        <f>J11*BK11</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN11">
-        <f>J11*BM11</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2467,7 +2470,7 @@
         <v>25.125</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>1.25</v>
@@ -2483,136 +2486,136 @@
         <v>0.16750000000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>20.100000000000001</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12">
-        <f>J12*M12</f>
+        <f t="shared" si="1"/>
         <v>60.300000000000004</v>
       </c>
       <c r="P12">
-        <f>J12*O12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>J12*Q12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>J12*S12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>J12*U12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>J12*W12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>H12*Y12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>J12*AA12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>J12*AC12</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE12">
         <v>2</v>
       </c>
       <c r="AF12">
-        <f>J12*AE12</f>
+        <f t="shared" si="10"/>
         <v>40.200000000000003</v>
       </c>
       <c r="AH12">
-        <f>J12*AG12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>J12*AI12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>J12*AK12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM12">
         <v>1</v>
       </c>
       <c r="AN12">
-        <f>J12*AM12</f>
+        <f t="shared" si="14"/>
         <v>20.100000000000001</v>
       </c>
       <c r="AP12">
-        <f>J12*AO12</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR12">
-        <f>J12*AQ12</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT12">
-        <f>J12*AS12</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV12">
-        <f>J12*AU12</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX12">
-        <f>J12*AW12</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ12">
-        <f>J12*AY12</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB12">
-        <f>J12*BA12</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD12">
-        <f>J12*BC12</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF12">
-        <f>J12*BE12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH12">
-        <f>J12*BG12</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ12">
-        <f>J12*BI12</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL12">
-        <f>J12*BK12</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BM12">
         <v>1</v>
       </c>
       <c r="BN12">
-        <f>J12*BM12</f>
+        <f t="shared" si="27"/>
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -2621,7 +2624,7 @@
         <v>14.0625</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>1.25</v>
@@ -2637,139 +2640,139 @@
         <v>4.6875E-2</v>
       </c>
       <c r="J13">
+        <f t="shared" si="28"/>
+        <v>11.25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.25</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f>J13*M13</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>J13*O13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>J13*Q13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>J13*S13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>J13*U13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>J13*W13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>H13*Y13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>J13*AA13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f>J13*AC13</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE13">
         <v>2</v>
       </c>
       <c r="AF13">
-        <f>J13*AE13</f>
+        <f t="shared" si="10"/>
         <v>22.5</v>
       </c>
       <c r="AH13">
-        <f>J13*AG13</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f>J13*AI13</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK13">
         <v>1</v>
       </c>
       <c r="AL13">
-        <f>J13*AK13</f>
+        <f t="shared" si="13"/>
         <v>11.25</v>
       </c>
       <c r="AN13">
-        <f>J13*AM13</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP13">
-        <f>J13*AO13</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AR13">
-        <f>J13*AQ13</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT13">
-        <f>J13*AS13</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV13">
-        <f>J13*AU13</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX13">
-        <f>J13*AW13</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ13">
-        <f>J13*AY13</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BA13">
         <v>2</v>
       </c>
       <c r="BB13">
-        <f>J13*BA13</f>
+        <f t="shared" si="21"/>
         <v>22.5</v>
       </c>
       <c r="BD13">
-        <f>J13*BC13</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF13">
-        <f>J13*BE13</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH13">
-        <f>J13*BG13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ13">
-        <f>J13*BI13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL13">
-        <f>J13*BK13</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN13">
-        <f>J13*BM13</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -2778,7 +2781,7 @@
         <v>14.0625</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>1.25</v>
@@ -2794,139 +2797,139 @@
         <v>4.6875E-2</v>
       </c>
       <c r="J14">
+        <f t="shared" si="28"/>
+        <v>11.25</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="11"/>
         <v>11.25</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f>J14*M14</f>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>J14*O14</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>J14*Q14</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>J14*S14</f>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f>J14*U14</f>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f>J14*W14</f>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f>H14*Y14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f>J14*AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <f>J14*AC14</f>
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <f>J14*AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <f>J14*AG14</f>
+      <c r="AJ14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="13"/>
         <v>11.25</v>
       </c>
-      <c r="AJ14">
-        <f>J14*AI14</f>
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>1</v>
-      </c>
-      <c r="AL14">
-        <f>J14*AK14</f>
+      <c r="AN14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="23"/>
         <v>11.25</v>
       </c>
-      <c r="AN14">
-        <f>J14*AM14</f>
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <f>J14*AO14</f>
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <f>J14*AQ14</f>
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <f>J14*AS14</f>
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <f>J14*AU14</f>
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <f>J14*AW14</f>
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <f>J14*AY14</f>
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <f>J14*BA14</f>
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <f>J14*BC14</f>
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>1</v>
-      </c>
-      <c r="BF14">
-        <f>J14*BE14</f>
-        <v>11.25</v>
-      </c>
       <c r="BH14">
-        <f>J14*BG14</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ14">
-        <f>J14*BI14</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL14">
-        <f>J14*BK14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN14">
-        <f>J14*BM14</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -2935,7 +2938,7 @@
         <v>11.25</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>1.25</v>
@@ -2947,152 +2950,152 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I15:I16" si="29">J15/60/H15</f>
         <v>0.03</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15:J16" si="30">IF(B15="是",D15/F15/G15,0)</f>
         <v>9</v>
       </c>
       <c r="N15">
-        <f>J15*M15</f>
+        <f t="shared" ref="N15:N16" si="31">J15*M15</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>J15*O15</f>
+        <f t="shared" ref="P15:P16" si="32">J15*O15</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>J15*Q15</f>
+        <f t="shared" ref="R15:R16" si="33">J15*Q15</f>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>J15*S15</f>
+        <f t="shared" ref="T15:T16" si="34">J15*S15</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>J15*U15</f>
+        <f t="shared" ref="V15:V16" si="35">J15*U15</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>J15*W15</f>
+        <f t="shared" ref="X15:X16" si="36">J15*W15</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>H15*Y15</f>
+        <f t="shared" ref="Z15:Z16" si="37">H15*Y15</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>J15*AA15</f>
+        <f t="shared" ref="AB15:AB16" si="38">J15*AA15</f>
         <v>0</v>
       </c>
       <c r="AC15">
         <v>5</v>
       </c>
       <c r="AD15">
-        <f>J15*AC15</f>
+        <f t="shared" ref="AD15:AD16" si="39">J15*AC15</f>
         <v>45</v>
       </c>
       <c r="AF15">
-        <f>J15*AE15</f>
+        <f t="shared" ref="AF15:AF16" si="40">J15*AE15</f>
         <v>0</v>
       </c>
       <c r="AG15">
         <v>2</v>
       </c>
       <c r="AH15">
-        <f>J15*AG15</f>
+        <f t="shared" ref="AH15:AH16" si="41">J15*AG15</f>
         <v>18</v>
       </c>
       <c r="AJ15">
-        <f>J15*AI15</f>
+        <f t="shared" ref="AJ15:AJ16" si="42">J15*AI15</f>
         <v>0</v>
       </c>
       <c r="AL15">
-        <f>J15*AK15</f>
+        <f t="shared" ref="AL15:AL16" si="43">J15*AK15</f>
         <v>0</v>
       </c>
       <c r="AN15">
-        <f>J15*AM15</f>
+        <f t="shared" ref="AN15:AN16" si="44">J15*AM15</f>
         <v>0</v>
       </c>
       <c r="AP15">
-        <f>J15*AO15</f>
+        <f t="shared" ref="AP15:AP16" si="45">J15*AO15</f>
         <v>0</v>
       </c>
       <c r="AR15">
-        <f>J15*AQ15</f>
+        <f t="shared" ref="AR15:AR16" si="46">J15*AQ15</f>
         <v>0</v>
       </c>
       <c r="AT15">
-        <f>J15*AS15</f>
+        <f t="shared" ref="AT15:AT16" si="47">J15*AS15</f>
         <v>0</v>
       </c>
       <c r="AV15">
-        <f>J15*AU15</f>
+        <f t="shared" ref="AV15:AV16" si="48">J15*AU15</f>
         <v>0</v>
       </c>
       <c r="AX15">
-        <f>J15*AW15</f>
+        <f t="shared" ref="AX15:AX16" si="49">J15*AW15</f>
         <v>0</v>
       </c>
       <c r="AZ15">
-        <f>J15*AY15</f>
+        <f t="shared" ref="AZ15:AZ16" si="50">J15*AY15</f>
         <v>0</v>
       </c>
       <c r="BB15">
-        <f>J15*BA15</f>
+        <f t="shared" ref="BB15:BB16" si="51">J15*BA15</f>
         <v>0</v>
       </c>
       <c r="BD15">
-        <f>J15*BC15</f>
+        <f t="shared" ref="BD15:BD16" si="52">J15*BC15</f>
         <v>0</v>
       </c>
       <c r="BE15">
         <v>3</v>
       </c>
       <c r="BF15">
-        <f>J15*BE15</f>
+        <f t="shared" ref="BF15:BF16" si="53">J15*BE15</f>
         <v>27</v>
       </c>
       <c r="BH15">
-        <f>J15*BG15</f>
+        <f t="shared" ref="BH15:BH16" si="54">J15*BG15</f>
         <v>0</v>
       </c>
       <c r="BI15">
         <v>1</v>
       </c>
       <c r="BJ15">
-        <f>J15*BI15</f>
+        <f t="shared" ref="BJ15:BJ16" si="55">J15*BI15</f>
         <v>9</v>
       </c>
       <c r="BL15">
-        <f>J15*BK15</f>
+        <f t="shared" ref="BL15:BL16" si="56">J15*BK15</f>
         <v>0</v>
       </c>
       <c r="BN15">
-        <f>J15*BM15</f>
+        <f t="shared" ref="BN15:BN16" si="57">J15*BM15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>7.03125</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3101,149 +3104,300 @@
         <v>8</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1.46484375E-2</v>
+        <f t="shared" si="29"/>
+        <v>1.171875E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>7.03125</v>
+        <f t="shared" si="30"/>
+        <v>5.625</v>
       </c>
       <c r="N16">
-        <f>J16*M16</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>J16*O16</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>J16*Q16</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>J16*S16</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>J16*U16</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>J16*W16</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>H16*Y16</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>J16*AA16</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f>J16*AC16</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f>J16*AE16</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AG16">
         <v>4</v>
       </c>
       <c r="AH16">
-        <f>J16*AG16</f>
-        <v>28.125</v>
+        <f t="shared" si="41"/>
+        <v>22.5</v>
       </c>
       <c r="AJ16">
-        <f>J16*AI16</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL16">
-        <f>J16*AK16</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN16">
-        <f>J16*AM16</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AP16">
-        <f>J16*AO16</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AR16">
-        <f>J16*AQ16</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AT16">
-        <f>J16*AS16</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AV16">
-        <f>J16*AU16</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AX16">
-        <f>J16*AW16</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY16">
         <v>20</v>
       </c>
       <c r="AZ16">
-        <f>J16*AY16</f>
-        <v>140.625</v>
+        <f t="shared" si="50"/>
+        <v>112.5</v>
       </c>
       <c r="BB16">
-        <f>J16*BA16</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BD16">
-        <f>J16*BC16</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BF16">
-        <f>J16*BE16</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BG16">
         <v>1</v>
       </c>
       <c r="BH16">
-        <f>J16*BG16</f>
-        <v>7.03125</v>
+        <f t="shared" si="54"/>
+        <v>5.625</v>
       </c>
       <c r="BI16">
         <v>4</v>
       </c>
       <c r="BJ16">
-        <f>J16*BI16</f>
+        <f t="shared" si="55"/>
+        <v>22.5</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
         <v>28.125</v>
       </c>
-      <c r="BL16">
-        <f>J16*BK16</f>
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <f>J16*BM16</f>
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>1.25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="28"/>
+        <v>22.5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>22.5</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" si="27"/>
+        <v>22.5</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>112.5</v>
+        <v>7.03125</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>1.25</v>
@@ -3252,297 +3406,149 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I22" si="2">J18/60/H18</f>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>1.171875E-2</v>
       </c>
       <c r="J18">
+        <f t="shared" si="28"/>
+        <v>5.625</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="N18">
-        <f>J18*M18</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P18">
-        <f>J18*O18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>J18*Q18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>J18*S18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>J18*U18</f>
-        <v>0</v>
-      </c>
-      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>4</v>
       </c>
-      <c r="X18">
-        <f>J18*W18</f>
-        <v>360</v>
-      </c>
-      <c r="Z18">
-        <f>H18*Y18</f>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f>J18*AA18</f>
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <f>J18*AC18</f>
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <f>J18*AE18</f>
-        <v>0</v>
-      </c>
       <c r="AH18">
-        <f>J18*AG18</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>22.5</v>
       </c>
       <c r="AJ18">
-        <f>J18*AI18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL18">
-        <f>J18*AK18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-1.25</v>
+        <v>4</v>
       </c>
       <c r="AN18">
-        <f>J18*AM18</f>
-        <v>-112.5</v>
+        <f t="shared" si="14"/>
+        <v>22.5</v>
       </c>
       <c r="AP18">
-        <f>J18*AO18</f>
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <f>J18*AQ18</f>
-        <v>180</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <f>J18*AS18</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV18">
-        <f>J18*AU18</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX18">
-        <f>J18*AW18</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ18">
-        <f>J18*AY18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="BB18">
-        <f>J18*BA18</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD18">
-        <f>J18*BC18</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BF18">
-        <f>J18*BE18</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BH18">
-        <f>J18*BG18</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BJ18">
-        <f>J18*BI18</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BL18">
-        <f>J18*BK18</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BN18">
-        <f>J18*BM18</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>225</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>1.25</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="N19">
-        <f>J19*M19</f>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f>J19*O19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <f>J19*Q19</f>
-        <v>270</v>
-      </c>
-      <c r="T19">
-        <f>J19*S19</f>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f>J19*U19</f>
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <f>J19*W19</f>
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <f>H19*Y19</f>
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <f>J19*AA19</f>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f>J19*AC19</f>
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <f>J19*AE19</f>
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <f>J19*AG19</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <f>J19*AI19</f>
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <f>J19*AK19</f>
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <f>J19*AM19</f>
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <f>J19*AO19</f>
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>-2.5</v>
-      </c>
-      <c r="AR19">
-        <f>J19*AQ19</f>
-        <v>-225</v>
-      </c>
-      <c r="AT19">
-        <f>J19*AS19</f>
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <f>J19*AU19</f>
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <f>J19*AW19</f>
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <f>J19*AY19</f>
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <f>J19*BA19</f>
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <f>J19*BC19</f>
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <f>J19*BE19</f>
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <f>J19*BG19</f>
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <f>J19*BI19</f>
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <f>J19*BK19</f>
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <f>J19*BM19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>93.75</v>
+        <v>112.5</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>1.25</v>
@@ -3551,26 +3557,23 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="I20:I23" si="58">J20/60/H20</f>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="28"/>
+        <v>90</v>
       </c>
       <c r="N20">
         <f>J20*M20</f>
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
       <c r="P20">
         <f>J20*O20</f>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f>J20*Q20</f>
@@ -3584,9 +3587,12 @@
         <f>J20*U20</f>
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
       <c r="X20">
         <f>J20*W20</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="Z20">
         <f>H20*Y20</f>
@@ -3612,38 +3618,35 @@
         <f>J20*AI20</f>
         <v>0</v>
       </c>
-      <c r="AK20">
-        <v>2</v>
-      </c>
       <c r="AL20">
         <f>J20*AK20</f>
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>-1.25</v>
       </c>
       <c r="AN20">
         <f>J20*AM20</f>
-        <v>0</v>
+        <v>-112.5</v>
       </c>
       <c r="AP20">
         <f>J20*AO20</f>
         <v>0</v>
       </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
       <c r="AR20">
         <f>J20*AQ20</f>
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="AT20">
         <f>J20*AS20</f>
-        <v>75</v>
-      </c>
-      <c r="AU20">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <f>J20*AU20</f>
-        <v>-93.75</v>
+        <v>0</v>
       </c>
       <c r="AX20">
         <f>J20*AW20</f>
@@ -3682,38 +3685,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>140.625</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>1.25</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0.3125</v>
+        <f t="shared" si="58"/>
+        <v>0.75</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>112.5</v>
+        <f t="shared" si="28"/>
+        <v>90</v>
       </c>
       <c r="N21">
         <f>J21*M21</f>
@@ -3723,16 +3726,16 @@
         <f>J21*O21</f>
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
       <c r="R21">
         <f>J21*Q21</f>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="T21">
         <f>J21*S21</f>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <f>J21*U21</f>
@@ -3750,12 +3753,9 @@
         <f>J21*AA21</f>
         <v>0</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
       <c r="AD21">
         <f>J21*AC21</f>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="AF21">
         <f>J21*AE21</f>
@@ -3781,9 +3781,12 @@
         <f>J21*AO21</f>
         <v>0</v>
       </c>
+      <c r="AQ21">
+        <v>-2.5</v>
+      </c>
       <c r="AR21">
         <f>J21*AQ21</f>
-        <v>0</v>
+        <v>-225</v>
       </c>
       <c r="AT21">
         <f>J21*AS21</f>
@@ -3797,23 +3800,17 @@
         <f>J21*AW21</f>
         <v>0</v>
       </c>
-      <c r="AY21">
-        <v>-1.25</v>
-      </c>
       <c r="AZ21">
         <f>J21*AY21</f>
-        <v>-140.625</v>
+        <v>0</v>
       </c>
       <c r="BB21">
         <f>J21*BA21</f>
         <v>0</v>
       </c>
-      <c r="BC21">
-        <v>4</v>
-      </c>
       <c r="BD21">
         <f>J21*BC21</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="BF21">
         <f>J21*BE21</f>
@@ -3836,21 +3833,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>37.5</v>
+        <v>93.75</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>1.25</v>
@@ -3859,23 +3856,26 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="58"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="28"/>
+        <v>75</v>
       </c>
       <c r="N22">
         <f>J22*M22</f>
         <v>0</v>
       </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
       <c r="P22">
         <f>J22*O22</f>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="R22">
         <f>J22*Q22</f>
@@ -3901,12 +3901,9 @@
         <f>J22*AA22</f>
         <v>0</v>
       </c>
-      <c r="AC22">
-        <v>5</v>
-      </c>
       <c r="AD22">
         <f>J22*AC22</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <f>J22*AE22</f>
@@ -3921,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL22">
         <f>J22*AK22</f>
@@ -3939,13 +3936,19 @@
         <f>J22*AQ22</f>
         <v>0</v>
       </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
       <c r="AT22">
         <f>J22*AS22</f>
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="AU22">
+        <v>-1.25</v>
       </c>
       <c r="AV22">
         <f>J22*AU22</f>
-        <v>0</v>
+        <v>-93.75</v>
       </c>
       <c r="AX22">
         <f>J22*AW22</f>
@@ -3971,12 +3974,9 @@
         <f>J22*BG22</f>
         <v>0</v>
       </c>
-      <c r="BI22">
-        <v>-1.25</v>
-      </c>
       <c r="BJ22">
         <f>J22*BI22</f>
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="BL22">
         <f>J22*BK22</f>
@@ -3987,160 +3987,459 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>140.625</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>1.25</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="58"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="28"/>
+        <v>112.5</v>
+      </c>
+      <c r="N23">
+        <f>J23*M23</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>J23*O23</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>J23*Q23</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <f>J23*S23</f>
+        <v>112.5</v>
+      </c>
+      <c r="V23">
+        <f>J23*U23</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>J23*W23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>H23*Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f>J23*AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <f>J23*AC23</f>
+        <v>112.5</v>
+      </c>
+      <c r="AF23">
+        <f>J23*AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f>J23*AG23</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f>J23*AI23</f>
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <f>J23*AK23</f>
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f>J23*AM23</f>
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <f>J23*AO23</f>
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <f>J23*AQ23</f>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f>J23*AS23</f>
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <f>J23*AU23</f>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f>J23*AW23</f>
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>-1.25</v>
+      </c>
+      <c r="AZ23">
+        <f>J23*AY23</f>
+        <v>-140.625</v>
+      </c>
+      <c r="BB23">
+        <f>J23*BA23</f>
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>4</v>
+      </c>
+      <c r="BD23">
+        <f>J23*BC23</f>
+        <v>450</v>
+      </c>
+      <c r="BF23">
+        <f>J23*BE23</f>
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <f>J23*BG23</f>
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <f>J23*BI23</f>
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <f>J23*BK23</f>
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <f>J23*BM23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>37.5</v>
+      </c>
       <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>1.25</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="59">J24/60/H24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="60">IF(B24="是",D24/F24/G24,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <f>J24*M24</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>J24*O24</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>J24*Q24</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f>J24*S24</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>J24*U24</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>J24*W24</f>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f>H24*Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f>J24*AA24</f>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <f>J24*AC24</f>
+        <v>150</v>
+      </c>
+      <c r="AF24">
+        <f>J24*AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f>J24*AG24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f>J24*AI24</f>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <f>J24*AK24</f>
+        <v>150</v>
+      </c>
+      <c r="AN24">
+        <f>J24*AM24</f>
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <f>J24*AO24</f>
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <f>J24*AQ24</f>
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f>J24*AS24</f>
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <f>J24*AU24</f>
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <f>J24*AW24</f>
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <f>J24*AY24</f>
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <f>J24*BA24</f>
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <f>J24*BC24</f>
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <f>J24*BE24</f>
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <f>J24*BG24</f>
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>-1.25</v>
+      </c>
+      <c r="BJ24">
+        <f>J24*BI24</f>
+        <v>-37.5</v>
+      </c>
+      <c r="BL24">
+        <f>J24*BK24</f>
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <f>J24*BM24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="N24">
-        <f>SUM(N4:N22)</f>
-        <v>150.30000000000001</v>
-      </c>
-      <c r="P24">
-        <f>SUM(P4:P22)</f>
+      <c r="N26">
+        <f>SUM(N4:N24)</f>
+        <v>240.3</v>
+      </c>
+      <c r="P26">
+        <f>SUM(P4:P24)</f>
         <v>225</v>
       </c>
-      <c r="R24">
-        <f>SUM(R4:R22)</f>
+      <c r="R26">
+        <f>SUM(R4:R24)</f>
         <v>270</v>
       </c>
-      <c r="T24">
-        <f>SUM(T4:T22)</f>
+      <c r="T26">
+        <f>SUM(T4:T24)</f>
         <v>112.5</v>
       </c>
-      <c r="V24">
-        <f>SUM(V4:V22)</f>
+      <c r="V26">
+        <f>SUM(V4:V24)</f>
         <v>90</v>
       </c>
-      <c r="X24">
-        <f>SUM(X4:X22)</f>
+      <c r="X26">
+        <f>SUM(X4:X24)</f>
         <v>405</v>
       </c>
-      <c r="Z24">
-        <f>SUM(Z4:Z22)</f>
+      <c r="Z26">
+        <f>SUM(Z4:Z24)</f>
         <v>72</v>
       </c>
-      <c r="AB24">
-        <f>SUM(AB4:AB22)</f>
+      <c r="AB26">
+        <f>SUM(AB4:AB24)</f>
         <v>397.5</v>
       </c>
-      <c r="AD24">
-        <f>SUM(AD4:AD22)</f>
+      <c r="AD26">
+        <f>SUM(AD4:AD24)</f>
         <v>397.5</v>
       </c>
-      <c r="AF24">
-        <f>SUM(AF4:AF22)</f>
+      <c r="AF26">
+        <f>SUM(AF4:AF24)</f>
         <v>445.2</v>
       </c>
-      <c r="AH24">
-        <f>SUM(AH4:AH22)</f>
-        <v>79.875</v>
-      </c>
-      <c r="AJ24">
-        <f>SUM(AJ4:AJ22)</f>
+      <c r="AH26">
+        <f>SUM(AH4:AH24)</f>
+        <v>119.25</v>
+      </c>
+      <c r="AJ26">
+        <f>SUM(AJ4:AJ24)</f>
         <v>117</v>
       </c>
-      <c r="AL24">
-        <f>SUM(AL4:AL22)</f>
+      <c r="AL26">
+        <f>SUM(AL4:AL24)</f>
         <v>412.5</v>
       </c>
-      <c r="AN24">
-        <f>SUM(AN4:AN22)</f>
-        <v>-24.900000000000006</v>
-      </c>
-      <c r="AP24">
-        <f>SUM(AP4:AP22)</f>
+      <c r="AN26">
+        <f>SUM(AN4:AN24)</f>
+        <v>-2.4000000000000057</v>
+      </c>
+      <c r="AP26">
+        <f>SUM(AP4:AP24)</f>
         <v>45</v>
       </c>
-      <c r="AR24">
-        <f>SUM(AR4:AR22)</f>
+      <c r="AR26">
+        <f>SUM(AR4:AR24)</f>
         <v>-45</v>
       </c>
-      <c r="AT24">
-        <f>SUM(AT4:AT22)</f>
+      <c r="AT26">
+        <f>SUM(AT4:AT24)</f>
         <v>75</v>
       </c>
-      <c r="AV24">
-        <f>SUM(AV4:AV22)</f>
+      <c r="AV26">
+        <f>SUM(AV4:AV24)</f>
         <v>-8.25</v>
       </c>
-      <c r="AX24">
-        <f>SUM(AX4:AX22)</f>
+      <c r="AX26">
+        <f>SUM(AX4:AX24)</f>
         <v>45</v>
       </c>
-      <c r="AZ24">
-        <f>SUM(AZ4:AZ22)</f>
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <f>SUM(BB4:BB22)</f>
+      <c r="AZ26">
+        <f>SUM(AZ4:AZ24)</f>
+        <v>-28.125</v>
+      </c>
+      <c r="BB26">
+        <f>SUM(BB4:BB24)</f>
         <v>90</v>
       </c>
-      <c r="BD24">
-        <f>SUM(BD4:BD22)</f>
+      <c r="BD26">
+        <f>SUM(BD4:BD24)</f>
         <v>450</v>
       </c>
-      <c r="BF24">
-        <f>SUM(BF4:BF22)</f>
+      <c r="BF26">
+        <f>SUM(BF4:BF24)</f>
         <v>60.75</v>
       </c>
-      <c r="BH24">
-        <f>SUM(BH4:BH22)</f>
-        <v>7.03125</v>
-      </c>
-      <c r="BJ24">
-        <f>SUM(BJ4:BJ22)</f>
-        <v>-0.375</v>
-      </c>
-      <c r="BL24">
-        <f>SUM(BL4:BL22)</f>
+      <c r="BH26">
+        <f>SUM(BH4:BH24)</f>
+        <v>5.625</v>
+      </c>
+      <c r="BJ26">
+        <f>SUM(BJ4:BJ24)</f>
+        <v>-6</v>
+      </c>
+      <c r="BL26">
+        <f>SUM(BL4:BL24)</f>
         <v>45</v>
       </c>
-      <c r="BN24">
-        <f>SUM(BN4:BN22)</f>
-        <v>155.1</v>
+      <c r="BN26">
+        <f>SUM(BN4:BN24)</f>
+        <v>177.6</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="Z26" s="1">
-        <f>Z24+AB24</f>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="Z28" s="2">
+        <f>Z26+AB26</f>
         <v>469.5</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="72">
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="Z28:AB28"/>
     <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AV1"/>
@@ -4152,6 +4451,12 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
@@ -4163,22 +4468,15 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AW26:AX26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="BE26:BF26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AU26:AV26"/>
-    <mergeCell ref="AY26:AZ26"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AW28:AX28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AY28:AZ28"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -4188,7 +4486,7 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="BI2:BJ2"/>
@@ -4197,6 +4495,13 @@
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AS2:AT2"/>
@@ -4204,29 +4509,29 @@
     <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AE26:AF26 AO26:AT26 BA26:BD26 BI4:BN136 Y26:Z136 O26:X26 M27:X136 AA27:BH136">
-    <cfRule type="cellIs" dxfId="15" priority="106" operator="notEqual">
+  <conditionalFormatting sqref="AE28:AF28 AO28:AT28 BA28:BD28 Y28:Z138 O28:X28 M29:X138 AA29:BH138 BI4:BN138">
+    <cfRule type="cellIs" dxfId="18" priority="106" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AF26 AO26:AT26 BA26:BD26 BI4:BN136 Y26:Z136 O26:X26 M27:X136 AA27:BH136">
-    <cfRule type="cellIs" dxfId="14" priority="105" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="AE28:AF28 AO28:AT28 BA28:BD28 Y28:Z138 O28:X28 M29:X138 AA29:BH138 BI4:BN138">
+    <cfRule type="cellIs" dxfId="17" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:BH25">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="M4:BH27">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG26:BH26">
-    <cfRule type="cellIs" dxfId="1" priority="97" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="BG28:BH28">
+    <cfRule type="cellIs" dxfId="14" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="98" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4256,7 +4561,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A26 A4:A22 BI1:BN1 M1:Y1</xm:sqref>
+          <xm:sqref>A28 BI1:BN1 M1:Y1 A4:A24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="90" operator="equal" id="{B2AB1559-7E84-4B6B-9DE1-51F1D12F911E}">
@@ -4269,7 +4574,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B25 B4:B22</xm:sqref>
+          <xm:sqref>B27 B4:B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="59" operator="equal" id="{1ABF8464-F9F8-4AB3-969D-B4DF3F091B66}">
@@ -4394,13 +4699,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A26 A4:A22 AC1:BN1 M1:Y1</xm:sqref>
+          <xm:sqref>A28 M1:Y1 AC1:BN1 A4:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BF54B68-411F-4954-A052-D29DEE8ACFE2}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B22</xm:sqref>
+          <xm:sqref>B4:B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4416,27 +4721,27 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/防御武器工厂建筑.xlsx
+++ b/Doc/防御武器工厂建筑.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\DysonSphereProgramBlueprints\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468BD4B-E68A-4218-B22A-26FEDBAE01FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CC233-7C06-4D82-AEB7-CF83E8B414CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6E389A-22E8-4378-B06A-4BD402C928F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="66">
   <si>
     <t>建筑</t>
   </si>
@@ -293,7 +293,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -743,7 +883,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,8 +976,9 @@
         <v>42</v>
       </c>
       <c r="AL1" s="2"/>
-      <c r="AM1" s="2" t="s">
-        <v>42</v>
+      <c r="AM1" s="2" t="str">
+        <f>A20</f>
+        <v>已选</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2" t="s">
@@ -861,8 +1002,9 @@
         <v>42</v>
       </c>
       <c r="AX1" s="2"/>
-      <c r="AY1" s="2" t="s">
-        <v>42</v>
+      <c r="AY1" s="2" t="str">
+        <f>A23</f>
+        <v>已选</v>
       </c>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2" t="s">
@@ -881,9 +1023,9 @@
         <v>42</v>
       </c>
       <c r="BH1" s="2"/>
-      <c r="BI1" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="BI1" s="2" t="str">
+        <f>A24</f>
+        <v>已选</v>
       </c>
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2" t="s">
@@ -2467,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>25.125</v>
+        <v>28.125</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -2483,18 +2625,18 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.16750000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="J12">
         <f t="shared" si="28"/>
-        <v>20.100000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>60.300000000000004</v>
+        <v>67.5</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
@@ -2533,7 +2675,7 @@
       </c>
       <c r="AF12">
         <f t="shared" si="10"/>
-        <v>40.200000000000003</v>
+        <v>45</v>
       </c>
       <c r="AH12">
         <f t="shared" si="11"/>
@@ -2552,7 +2694,7 @@
       </c>
       <c r="AN12">
         <f t="shared" si="14"/>
-        <v>20.100000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="AP12">
         <f t="shared" si="15"/>
@@ -2607,7 +2749,7 @@
       </c>
       <c r="BN12">
         <f t="shared" si="27"/>
-        <v>20.100000000000001</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.35">
@@ -4298,7 +4440,7 @@
       </c>
       <c r="N26">
         <f>SUM(N4:N24)</f>
-        <v>240.3</v>
+        <v>247.5</v>
       </c>
       <c r="P26">
         <f>SUM(P4:P24)</f>
@@ -4334,7 +4476,7 @@
       </c>
       <c r="AF26">
         <f>SUM(AF4:AF24)</f>
-        <v>445.2</v>
+        <v>450</v>
       </c>
       <c r="AH26">
         <f>SUM(AH4:AH24)</f>
@@ -4350,7 +4492,7 @@
       </c>
       <c r="AN26">
         <f>SUM(AN4:AN24)</f>
-        <v>-2.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <f>SUM(AP4:AP24)</f>
@@ -4402,7 +4544,7 @@
       </c>
       <c r="BN26">
         <f>SUM(BN4:BN24)</f>
-        <v>177.6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
@@ -4435,6 +4577,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AW28:AX28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="AY28:AZ28"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="Y1:AB1"/>
@@ -4451,87 +4649,31 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AW28:AX28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AU28:AV28"/>
-    <mergeCell ref="AY28:AZ28"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AE28:AF28 AO28:AT28 BA28:BD28 Y28:Z138 O28:X28 M29:X138 AA29:BH138 BI4:BN138">
-    <cfRule type="cellIs" dxfId="18" priority="106" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="126" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28:AF28 AO28:AT28 BA28:BD28 Y28:Z138 O28:X28 M29:X138 AA29:BH138 BI4:BN138">
-    <cfRule type="cellIs" dxfId="17" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BH27">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BH28">
-    <cfRule type="cellIs" dxfId="14" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="98" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="118" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4541,7 +4683,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{FAFBD42D-0638-4C0C-BDE2-97EDE9B210A2}">
+          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{FAFBD42D-0638-4C0C-BDE2-97EDE9B210A2}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4551,7 +4693,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="87" operator="equal" id="{B739A7A9-3A22-4189-AA3E-11AC4748A25A}">
+          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{B739A7A9-3A22-4189-AA3E-11AC4748A25A}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4561,10 +4703,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A28 BI1:BN1 M1:Y1 A4:A24</xm:sqref>
+          <xm:sqref>A28 M1:N1 BI1:BN1 Y1 A4:A24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{B2AB1559-7E84-4B6B-9DE1-51F1D12F911E}">
+          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{B2AB1559-7E84-4B6B-9DE1-51F1D12F911E}">
             <xm:f>Sheet2!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4577,7 +4719,7 @@
           <xm:sqref>B27 B4:B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{1ABF8464-F9F8-4AB3-969D-B4DF3F091B66}">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{1ABF8464-F9F8-4AB3-969D-B4DF3F091B66}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4587,7 +4729,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{1F1E474F-1D80-45E5-8DB6-96F3338E3869}">
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{1F1E474F-1D80-45E5-8DB6-96F3338E3869}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4597,10 +4739,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AC1:AN1</xm:sqref>
+          <xm:sqref>AE1:AH1 AK1:AN1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{E95BA4CC-CE26-494F-A34F-05C0AD4108F0}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{E95BA4CC-CE26-494F-A34F-05C0AD4108F0}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4610,7 +4752,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{1184DAD5-46D6-4E55-A4D9-0CA92AE3EDFB}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{1184DAD5-46D6-4E55-A4D9-0CA92AE3EDFB}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4623,7 +4765,7 @@
           <xm:sqref>AO1:AP1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{52EF2FD7-D97F-4099-99BC-66EE27EFF51A}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{52EF2FD7-D97F-4099-99BC-66EE27EFF51A}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4633,7 +4775,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{E06642E7-14C0-480D-977D-C6A341134C11}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{E06642E7-14C0-480D-977D-C6A341134C11}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4643,10 +4785,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AQ1:AZ1</xm:sqref>
+          <xm:sqref>AQ1:AR1 AY1:AZ1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{02DC7278-644F-4BE4-84ED-C941CB17C827}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{F3C396DA-562A-4502-9661-7A823C6094E4}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4656,7 +4798,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{6DA37A6D-D435-4927-B05A-A8ECE968397F}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{DDC20622-C488-40E2-AAF1-2CAC4BA38B12}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4666,10 +4808,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BA1:BF1</xm:sqref>
+          <xm:sqref>BA1:BH1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{F3C396DA-562A-4502-9661-7A823C6094E4}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A17BFCF0-25EB-4258-877C-C247084EDB15}">
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
               <fill>
@@ -4679,7 +4821,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{DDC20622-C488-40E2-AAF1-2CAC4BA38B12}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{BC573692-5B05-487C-BED9-C4429200CDE4}">
             <xm:f>Sheet2!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4689,7 +4831,214 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BG1:BH1</xm:sqref>
+          <xm:sqref>AW1:AX1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{E679AE32-1C84-4317-85C1-628E765512DC}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{59A0551D-482C-405B-89E9-51B9333F7294}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AU1:AV1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{D6E58A3A-905B-403F-8F74-FECE72EFDF53}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{376E0D56-48F8-43AB-9EB1-DA8461F75544}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AS1:AT1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{3315737D-4AEF-4C93-A2E0-10AE8BC96ED7}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6A1970C8-3E0C-48D0-9ED4-59CF9B6466F8}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AI1:AJ1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{FD3047B5-6CEE-424B-AFB0-4267E8838504}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{CE8C4D75-3D21-488B-995B-37AE9211CD85}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AC1:AD1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{86545F35-3B4A-4AE1-8DE7-7361AB414B20}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{B33EEBAE-6F23-41C4-944B-25C1F5476F60}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W1:X1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{6225BCE3-616D-4C2F-BE6C-491147BEFED5}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{E9BD066E-E418-42BE-A385-9193DF00AA08}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U1:V1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{1B9D7EBA-FC30-4CC2-9654-60D8800FC457}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{61013857-7A0F-40A2-903F-E7A969B11705}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S1:T1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{9F7D5E18-3C5D-42EF-9F8D-E296F05F5E16}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{D3A23AFD-0CB3-4E33-A632-94B48520FC72}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Q1:R1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{71BA1B5A-13A1-4D65-860F-1ADF6937244A}">
+            <xm:f>Sheet2!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{9053FB98-F16F-4A4F-9BEF-309AD25A8A39}">
+            <xm:f>Sheet2!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O1:P1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4699,7 +5048,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A28 M1:Y1 AC1:BN1 A4:A24</xm:sqref>
+          <xm:sqref>A28 AC1:BN1 M1:Y1 A4:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BF54B68-411F-4954-A052-D29DEE8ACFE2}">
           <x14:formula1>
